--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-29T22:45:39+00:00</t>
+    <t>2022-10-29T23:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-29T23:14:10+00:00</t>
+    <t>2022-10-29T23:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-29T23:58:01+00:00</t>
+    <t>2022-10-30T01:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T01:19:33+00:00</t>
+    <t>2022-10-30T02:28:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T02:28:28+00:00</t>
+    <t>2022-10-30T07:21:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T07:21:47+00:00</t>
+    <t>2022-10-30T08:25:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T08:25:50+00:00</t>
+    <t>2022-10-30T09:21:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T09:21:41+00:00</t>
+    <t>2022-10-30T22:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
